--- a/biology/Botanique/Polémoine_bleue/Polémoine_bleue.xlsx
+++ b/biology/Botanique/Polémoine_bleue/Polémoine_bleue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pol%C3%A9moine_bleue</t>
+          <t>Polémoine_bleue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polemonium caeruleum
 La Polémoine bleue (Polemonium caeruleum), Valériane grecque ou Échelle de Jacob, est une espèce de plantes à fleurs de la famille des Polémoniacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pol%C3%A9moine_bleue</t>
+          <t>Polémoine_bleue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,49 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 C'est une plante herbacée vivace, en touffe, aux tiges anguleuses hautes de 20 à 80 cm, aux feuilles alternes, pennées, aux fleurs bleues ou blanches en grappes terminales.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Polémoine_bleue</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pol%C3%A9moine_bleue</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Type d'inflorescence : racème de cymes bipares
 Répartition des sexes : hermaphrodite
 Type de pollinisation : entomogame
@@ -533,31 +582,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pol%C3%A9moine_bleue</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Polémoine_bleue</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pol%C3%A9moine_bleue</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante peut se rencontrer en France dans les prairies humides des fonds de vallée, en Alsace, dans le massif jurassien, dans le Cantal et dans la Haute-Garonne jusqu'à une altitude de 2 000 m. Elle est protégée au niveau national. (Contrairement à ce que peut faire penser son nom vernaculaire valériane grecque, elle ne pousse pas en Grèce).
 </t>
